--- a/biology/Médecine/Anthracose/Anthracose.xlsx
+++ b/biology/Médecine/Anthracose/Anthracose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anthracose est une pneumoconiose causée par l'inhalation de particules de charbon.
 Les particules de charbon s'accumulent dans les poumons et dans les systèmes de drainage lymphatique. L'anthracose se caractérise par sa coloration noire sur les coupes colorées ou non. Elle n'entraîne pas de lésion par elle-même, mais peut être associée à des cristaux de silice responsables d'une inflammation chronique et d'une fibrose (anthraco-silicose).
